--- a/Transmission.xlsx
+++ b/Transmission.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{27907A26-8D8C-4CC6-834E-AF57CBB67B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928C6DA-BF2E-4E8F-A427-D6ABEB6E2991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="17520" windowHeight="10800"/>
+    <workbookView xWindow="1260" yWindow="-110" windowWidth="18050" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Names</t>
   </si>
@@ -114,16 +126,25 @@
   <si>
     <t>Io on the disk</t>
   </si>
+  <si>
+    <t>First six (early sept)</t>
+  </si>
+  <si>
+    <t>No Io</t>
+  </si>
+  <si>
+    <t>No Io and First six</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +296,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,7 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -637,6 +666,9 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -694,6 +726,1555 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jupiter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.31053592471522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3180147898819501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3255149864261599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3294236804447499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3193608403941499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3021362386437201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2633638234167901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.32281728848747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.31322809803021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3592245152836699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2936623929168301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Moons Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.3727627996482401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3557719360735401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.36741587940828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3712610089392701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3509137372367299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34788757915502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.32944180209172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3386296262417501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.30596015122784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.37283327988582</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3084682697048999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Io</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.39026602776317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32455698354406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3437713149717201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37939673924573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33124791614855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3401078624894101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2911119934713799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2666909767244401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Europa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.35525957153332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3838685315935699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3591177192686601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3245390271084101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3460474924090999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3670627471057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3645079696737501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.30014614861981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3959268086449499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.31818328751261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ganymede</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>1.3869868886030301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3869598871814099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3761891095215999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3309374819703499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3822709814534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2795650561368701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.32844339214369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3387921076490901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3628846375641901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2987532518972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Callisto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Transmission!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>1.3550637838864401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37034046772109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4169305237196099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3153442636025801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.33103154263489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3704551496782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.31821137191802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3596883934483199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FAD1-4C6A-B685-1DA2388AB126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="635313912"/>
+        <c:axId val="635326048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="635313912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635326048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635326048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635313912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B14667F8-DBB0-4F95-A6CE-91BC2D82D2A4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667750" cy="6294438"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917AB0B8-1062-4487-A49F-AA4B506980B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,14 +2573,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="B11:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1049,419 +2635,413 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1.31053592471522</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1.3180147898819501</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1.3255149864261599</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1.3294236804447499</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1.3193608403941499</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1.3021362386437201</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1.2633638234167901</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1.32281728848747</v>
-      </c>
-      <c r="J2" s="9">
-        <v>1.31322809803021</v>
-      </c>
-      <c r="K2" s="10">
-        <v>1.3592245152836699</v>
-      </c>
-      <c r="L2" s="9">
-        <v>1.2936623929168301</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1.3142984162400799</v>
-      </c>
-      <c r="N2" s="9">
-        <v>2.2700318153769099E-2</v>
-      </c>
-      <c r="O2" s="9">
-        <v>6.8444034488859499E-3</v>
-      </c>
-      <c r="P2" s="1">
-        <f>O2/M2</f>
-        <v>5.2076479468538732E-3</v>
-      </c>
-      <c r="Q2" s="9">
-        <f>AVERAGE(B2:G2,I2:J2,L2)</f>
-        <v>1.3149660266600511</v>
-      </c>
-      <c r="R2">
-        <f>_xlfn.STDEV.P(B2:G2,I2:J2,L2)</f>
-        <v>1.080972007398808E-2</v>
+      <c r="B2" s="14">
+        <v>44076</v>
+      </c>
+      <c r="C2" s="14">
+        <v>44077</v>
+      </c>
+      <c r="D2" s="14">
+        <v>44078</v>
+      </c>
+      <c r="E2" s="14">
+        <v>44087</v>
+      </c>
+      <c r="F2" s="14">
+        <v>44088</v>
+      </c>
+      <c r="G2" s="14">
+        <v>44089</v>
+      </c>
+      <c r="H2" s="14">
+        <v>44098</v>
+      </c>
+      <c r="I2" s="14">
+        <v>44099</v>
+      </c>
+      <c r="J2" s="14">
+        <v>44111</v>
+      </c>
+      <c r="K2" s="14">
+        <v>44112</v>
+      </c>
+      <c r="L2" s="14">
+        <v>44113</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.39026602776317</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.31053592471522</v>
       </c>
       <c r="C3" s="9">
-        <v>1.32455698354406</v>
+        <v>1.3180147898819501</v>
       </c>
       <c r="D3" s="9">
-        <v>1.3437713149717201</v>
+        <v>1.3255149864261599</v>
       </c>
       <c r="E3" s="9">
-        <v>1.37939673924573</v>
+        <v>1.3294236804447499</v>
       </c>
       <c r="F3" s="9">
-        <v>1.33124791614855</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <v>1.3401078624894101</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1.2911119934713799</v>
-      </c>
-      <c r="J3" s="10">
-        <v>1.2666909767244401</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+        <v>1.3193608403941499</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.3021362386437201</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1.2633638234167901</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.32281728848747</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.31322809803021</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1.3592245152836699</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.2936623929168301</v>
+      </c>
       <c r="M3" s="9">
-        <v>1.3333937267948099</v>
+        <v>1.3142984162400799</v>
       </c>
       <c r="N3" s="9">
-        <v>3.8443471651379603E-2</v>
+        <v>2.2700318153769099E-2</v>
       </c>
       <c r="O3" s="9">
-        <v>1.1591142827844601E-2</v>
+        <v>6.8444034488859499E-3</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P7" si="0">O3/M3</f>
-        <v>8.6929633722720445E-3</v>
+        <f>O3/M3</f>
+        <v>5.2076479468538732E-3</v>
       </c>
       <c r="Q3" s="9">
-        <f>AVERAGE(C3:I3)</f>
-        <v>1.3350321349784753</v>
+        <f>AVERAGE(B3:G3,I3:J3,L3)</f>
+        <v>1.3149660266600511</v>
       </c>
       <c r="R3">
-        <f>_xlfn.STDEV.P(C3:I3)</f>
-        <v>2.6215079401747894E-2</v>
+        <f>_xlfn.STDEV.P(B3:G3,I3:J3,L3)</f>
+        <v>1.080972007398808E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1.35525957153332</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.39026602776317</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.32455698354406</v>
+      </c>
       <c r="D4" s="9">
-        <v>1.3838685315935699</v>
+        <v>1.3437713149717201</v>
       </c>
       <c r="E4" s="9">
-        <v>1.3591177192686601</v>
+        <v>1.37939673924573</v>
       </c>
       <c r="F4" s="9">
-        <v>1.3245390271084101</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1.3460474924090999</v>
-      </c>
+        <v>1.33124791614855</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9">
-        <v>1.3670627471057</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1.3645079696737501</v>
+        <v>1.3401078624894101</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.2911119934713799</v>
       </c>
       <c r="J4" s="10">
-        <v>1.30014614861981</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1.3959268086449499</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1.31818328751261</v>
-      </c>
+        <v>1.2666909767244401</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="9">
-        <v>1.35146593034699</v>
+        <v>1.3333937267948099</v>
       </c>
       <c r="N4" s="9">
-        <v>2.8299942110897099E-2</v>
+        <v>3.8443471651379603E-2</v>
       </c>
       <c r="O4" s="9">
-        <v>8.5327535973294798E-3</v>
+        <v>1.1591142827844601E-2</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3137023329464829E-3</v>
+        <f t="shared" ref="P4:P8" si="0">O4/M4</f>
+        <v>8.6929633722720445E-3</v>
       </c>
       <c r="Q4" s="9">
-        <f>AVERAGE(B4:I4,K4)</f>
-        <v>1.3620412334171825</v>
+        <f>AVERAGE(C4:I4)</f>
+        <v>1.3350321349784753</v>
       </c>
       <c r="R4">
-        <f>_xlfn.STDEV.P(B4:I4)</f>
-        <v>1.7156636628689013E-2</v>
+        <f>_xlfn.STDEV.P(C4:I4)</f>
+        <v>2.6215079401747894E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
-        <v>1.3869868886030301</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.35525957153332</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="9">
-        <v>1.3869598871814099</v>
+        <v>1.3838685315935699</v>
       </c>
       <c r="E5" s="9">
-        <v>1.3761891095215999</v>
+        <v>1.3591177192686601</v>
       </c>
       <c r="F5" s="9">
-        <v>1.3309374819703499</v>
+        <v>1.3245390271084101</v>
       </c>
       <c r="G5" s="9">
-        <v>1.3822709814534</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1.2795650561368701</v>
+        <v>1.3460474924090999</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.3670627471057</v>
       </c>
       <c r="I5" s="9">
-        <v>1.32844339214369</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1.3387921076490901</v>
+        <v>1.3645079696737501</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.30014614861981</v>
       </c>
       <c r="K5" s="9">
-        <v>1.3628846375641901</v>
+        <v>1.3959268086449499</v>
       </c>
       <c r="L5" s="10">
-        <v>1.2987532518972</v>
+        <v>1.31818328751261</v>
       </c>
       <c r="M5" s="9">
-        <v>1.3471782794120799</v>
+        <v>1.35146593034699</v>
       </c>
       <c r="N5" s="9">
-        <v>3.6178358171505803E-2</v>
+        <v>2.8299942110897099E-2</v>
       </c>
       <c r="O5" s="9">
-        <v>1.09081854169066E-2</v>
+        <v>8.5327535973294798E-3</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>8.0970615274965872E-3</v>
+        <v>6.3137023329464829E-3</v>
       </c>
       <c r="Q5" s="9">
-        <f>AVERAGE(C5:G5,I5:K5)</f>
-        <v>1.361683060760845</v>
+        <f>AVERAGE(B5:I5,K5)</f>
+        <v>1.3620412334171825</v>
       </c>
       <c r="R5">
-        <f>_xlfn.STDEV.P(C5:G5,I5:K5)</f>
-        <v>2.3688328593883437E-2</v>
+        <f>_xlfn.STDEV.P(B5:I5)</f>
+        <v>1.7156636628689013E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>1.3869868886030301</v>
+      </c>
       <c r="D6" s="9">
-        <v>1.3550637838864401</v>
+        <v>1.3869598871814099</v>
       </c>
       <c r="E6" s="9">
-        <v>1.37034046772109</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1.4169305237196099</v>
+        <v>1.3761891095215999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.3309374819703499</v>
       </c>
       <c r="G6" s="9">
-        <v>1.3153442636025801</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1.33103154263489</v>
+        <v>1.3822709814534</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.2795650561368701</v>
       </c>
       <c r="I6" s="9">
-        <v>1.3704551496782</v>
+        <v>1.32844339214369</v>
       </c>
       <c r="J6" s="9">
-        <v>1.31821137191802</v>
+        <v>1.3387921076490901</v>
       </c>
       <c r="K6" s="9">
-        <v>1.3596883934483199</v>
-      </c>
-      <c r="L6" s="9"/>
+        <v>1.3628846375641901</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1.2987532518972</v>
+      </c>
       <c r="M6" s="9">
-        <v>1.3546331870761401</v>
+        <v>1.3471782794120799</v>
       </c>
       <c r="N6" s="9">
-        <v>3.1286893404512801E-2</v>
+        <v>3.6178358171505803E-2</v>
       </c>
       <c r="O6" s="9">
-        <v>9.4333532980558198E-3</v>
+        <v>1.09081854169066E-2</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>6.9637695193463453E-3</v>
+        <v>8.0970615274965872E-3</v>
       </c>
       <c r="Q6" s="9">
-        <f>AVERAGE(D6:E6,G6:K6)</f>
-        <v>1.3457335675556485</v>
+        <f>AVERAGE(C6:G6,I6:K6)</f>
+        <v>1.361683060760845</v>
       </c>
       <c r="R6">
-        <f>_xlfn.STDEV.P(D6:E6,G6:K6)</f>
-        <v>2.2024586408008053E-2</v>
+        <f>_xlfn.STDEV.P(C6:G6,I6:K6)</f>
+        <v>2.3688328593883437E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1.3727627996482401</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.3557719360735401</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9">
-        <v>1.36741587940828</v>
+        <v>1.3550637838864401</v>
       </c>
       <c r="E7" s="9">
-        <v>1.3712610089392701</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.3509137372367299</v>
+        <v>1.37034046772109</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.4169305237196099</v>
       </c>
       <c r="G7" s="9">
-        <v>1.34788757915502</v>
+        <v>1.3153442636025801</v>
       </c>
       <c r="H7" s="9">
-        <v>1.32944180209172</v>
+        <v>1.33103154263489</v>
       </c>
       <c r="I7" s="9">
-        <v>1.3386296262417501</v>
+        <v>1.3704551496782</v>
       </c>
       <c r="J7" s="9">
-        <v>1.30596015122784</v>
+        <v>1.31821137191802</v>
       </c>
       <c r="K7" s="9">
-        <v>1.37283327988582</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1.3084682697048999</v>
-      </c>
+        <v>1.3596883934483199</v>
+      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="9">
-        <f>AVERAGE(B7:L7)</f>
-        <v>1.3473950972375552</v>
+        <v>1.3546331870761401</v>
       </c>
       <c r="N7" s="9">
-        <f>_xlfn.STDEV.P(B7:L7)</f>
-        <v>2.3306527875739742E-2</v>
-      </c>
-      <c r="O7" s="11">
-        <f>N7/SQRT(COUNT(B7:L7))*1.96</f>
-        <v>1.3773277812216701E-2</v>
+        <v>3.1286893404512801E-2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>9.4333532980558198E-3</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>1.022215224061215E-2</v>
+        <v>6.9637695193463453E-3</v>
       </c>
       <c r="Q7" s="9">
-        <f>AVERAGE(Q3:Q6)</f>
-        <v>1.351122499178038</v>
+        <f>AVERAGE(D7:E7,G7:K7)</f>
+        <v>1.3457335675556485</v>
+      </c>
+      <c r="R7">
+        <f>_xlfn.STDEV.P(D7:E7,G7:K7)</f>
+        <v>2.2024586408008053E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9">
-        <v>1.7503228114928601E-2</v>
+        <v>1.3727627996482401</v>
       </c>
       <c r="C8" s="9">
-        <v>3.1214952529482799E-2</v>
+        <v>1.3557719360735401</v>
       </c>
       <c r="D8" s="9">
-        <v>1.8468200338295201E-2</v>
+        <v>1.36741587940828</v>
       </c>
       <c r="E8" s="9">
-        <v>7.7263051183526299E-3</v>
+        <v>1.3712610089392701</v>
       </c>
       <c r="F8" s="9">
-        <v>3.82087579143153E-2</v>
+        <v>1.3509137372367299</v>
       </c>
       <c r="G8" s="9">
-        <v>2.7353681409698599E-2</v>
+        <v>1.34788757915502</v>
       </c>
       <c r="H8" s="9">
-        <v>3.16990434011475E-2</v>
+        <v>1.32944180209172</v>
       </c>
       <c r="I8" s="9">
-        <v>3.1797159424971001E-2</v>
+        <v>1.3386296262417501</v>
       </c>
       <c r="J8" s="9">
-        <v>2.6475934654660201E-2</v>
+        <v>1.30596015122784</v>
       </c>
       <c r="K8" s="9">
-        <v>1.6381642103762101E-2</v>
+        <v>1.37283327988582</v>
       </c>
       <c r="L8" s="9">
-        <v>9.7150178077086702E-3</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+        <v>1.3084682697048999</v>
+      </c>
+      <c r="M8" s="9">
+        <f>AVERAGE(B4:L7)</f>
+        <v>1.3469627057932869</v>
+      </c>
+      <c r="N8" s="9">
+        <f>_xlfn.STDEV.P(B4:L7)</f>
+        <v>3.4519981232220637E-2</v>
+      </c>
+      <c r="O8" s="11">
+        <f>N8/SQRT(COUNT(B8:L8))*1.96</f>
+        <v>2.0400005274006979E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5145189385174921E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>AVERAGE(Q4:Q7)</f>
+        <v>1.351122499178038</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9">
-        <v>1.2376651292720999E-2</v>
+        <v>1.7503228114928601E-2</v>
       </c>
       <c r="C9" s="9">
-        <v>2.2072304608013401E-2</v>
+        <v>3.1214952529482799E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>9.2341001691476198E-3</v>
+        <v>1.8468200338295201E-2</v>
       </c>
       <c r="E9" s="9">
-        <v>3.8631525591763102E-3</v>
+        <v>7.7263051183526299E-3</v>
       </c>
       <c r="F9" s="9">
-        <v>1.9104378957157601E-2</v>
+        <v>3.82087579143153E-2</v>
       </c>
       <c r="G9" s="9">
-        <v>1.57926553252167E-2</v>
+        <v>2.7353681409698599E-2</v>
       </c>
       <c r="H9" s="9">
-        <v>1.5849521700573702E-2</v>
+        <v>3.16990434011475E-2</v>
       </c>
       <c r="I9" s="9">
-        <v>1.5898579712485501E-2</v>
+        <v>3.1797159424971001E-2</v>
       </c>
       <c r="J9" s="9">
-        <v>1.32379673273301E-2</v>
+        <v>2.6475934654660201E-2</v>
       </c>
       <c r="K9" s="9">
-        <v>9.4579454783751699E-3</v>
+        <v>1.6381642103762101E-2</v>
       </c>
       <c r="L9" s="9">
-        <v>6.8695549711788604E-3</v>
+        <v>9.7150178077086702E-3</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1469,311 +3049,559 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9">
-        <v>0.95467033711215799</v>
+        <v>1.2376651292720999E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>0.97215081298928097</v>
+        <v>2.2072304608013401E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>0.969357608308413</v>
+        <v>9.2341001691476198E-3</v>
       </c>
       <c r="E10" s="9">
-        <v>0.96948988688383597</v>
+        <v>3.8631525591763102E-3</v>
       </c>
       <c r="F10" s="9">
-        <v>0.97664329263012395</v>
+        <v>1.9104378957157601E-2</v>
       </c>
       <c r="G10" s="9">
-        <v>0.96605700562951402</v>
+        <v>1.57926553252167E-2</v>
       </c>
       <c r="H10" s="9">
-        <v>0.95029644880207598</v>
+        <v>1.5849521700573702E-2</v>
       </c>
       <c r="I10" s="9">
-        <v>0.98818766786248202</v>
+        <v>1.5898579712485501E-2</v>
       </c>
       <c r="J10" s="9">
-        <v>1.0055652132996</v>
+        <v>1.32379673273301E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>0.99008709593397703</v>
+        <v>9.4579454783751699E-3</v>
       </c>
       <c r="L10" s="9">
-        <v>0.98868457330538595</v>
-      </c>
-      <c r="M10" s="12">
-        <f t="shared" ref="M10:M11" si="1">AVERAGE(B10:L10)</f>
-        <v>0.97556272206880434</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" ref="N10:N11" si="2">_xlfn.STDEV.P(B10:L10)</f>
-        <v>1.5655686250327309E-2</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" ref="O10:O11" si="3">N10/SQRT(COUNT(B10:L10))*1.96</f>
-        <v>9.2519193427826347E-3</v>
-      </c>
-      <c r="P10" s="1">
-        <f>O10/M10</f>
-        <v>9.4836745331584298E-3</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>Q2/Q7</f>
-        <v>0.97323967845995996</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>6.8695549711788604E-3</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="9">
-        <v>4.5329662887842001E-2</v>
+        <v>0.95467033711215799</v>
       </c>
       <c r="C11" s="9">
-        <v>2.7849187010718399E-2</v>
+        <v>0.97215081298928097</v>
       </c>
       <c r="D11" s="9">
-        <v>3.0642391691586199E-2</v>
+        <v>0.969357608308413</v>
       </c>
       <c r="E11" s="9">
-        <v>3.0510113116163098E-2</v>
+        <v>0.96948988688383597</v>
       </c>
       <c r="F11" s="9">
-        <v>2.33567073698751E-2</v>
+        <v>0.97664329263012395</v>
       </c>
       <c r="G11" s="9">
-        <v>3.3942994370485403E-2</v>
+        <v>0.96605700562951402</v>
       </c>
       <c r="H11" s="9">
-        <v>4.9703551197923898E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1.18123321375177E-2</v>
-      </c>
-      <c r="J11" s="10">
-        <v>-5.5652132996077902E-3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>9.9129040660227395E-3</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1.1315426694614E-2</v>
+        <v>0.95029644880207598</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.98818766786248202</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1.0055652132996</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.99008709593397703</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.98868457330538595</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="1"/>
-        <v>2.4437277931194611E-2</v>
+        <f t="shared" ref="M11:M12" si="1">AVERAGE(B11:L11)</f>
+        <v>0.97556272206880434</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="2"/>
-        <v>1.565568625032859E-2</v>
+        <f t="shared" ref="N11:N12" si="2">_xlfn.STDEV.P(B11:L11)</f>
+        <v>1.5655686250327309E-2</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="3"/>
-        <v>9.251919342783391E-3</v>
-      </c>
-      <c r="P11" s="5">
+        <f t="shared" ref="O11:O12" si="3">N11/SQRT(COUNT(B11:L11))*1.96</f>
+        <v>9.2519193427826347E-3</v>
+      </c>
+      <c r="P11" s="1">
         <f>O11/M11</f>
-        <v>0.37859860532883471</v>
+        <v>9.4836745331584298E-3</v>
       </c>
       <c r="Q11" s="12">
-        <f>1-Q10</f>
-        <v>2.6760321540040044E-2</v>
-      </c>
-      <c r="S11" s="6">
-        <v>3.8744399999999998E-2</v>
-      </c>
-      <c r="T11" s="3">
-        <f>M11-S11</f>
-        <v>-1.4307122068805387E-2</v>
-      </c>
-      <c r="U11" s="7">
-        <f>T11/S11</f>
-        <v>-0.36926941877549757</v>
+        <f>Q3/Q8</f>
+        <v>0.97323967845995996</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="9">
-        <v>9.0158702551470793E-3</v>
+        <v>4.5329662887842001E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>1.62802489273653E-2</v>
+        <v>2.7849187010718399E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>6.7529566594936802E-3</v>
+        <v>3.0642391691586199E-2</v>
       </c>
       <c r="E12" s="9">
-        <v>2.81722628587289E-3</v>
+        <v>3.0510113116163098E-2</v>
       </c>
       <c r="F12" s="9">
-        <v>1.4141820036736899E-2</v>
+        <v>2.33567073698751E-2</v>
       </c>
       <c r="G12" s="9">
-        <v>1.17165968211658E-2</v>
+        <v>3.3942994370485403E-2</v>
       </c>
       <c r="H12" s="9">
-        <v>1.1921937218790901E-2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1.1876757693702901E-2</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1.0136578298261201E-2</v>
-      </c>
-      <c r="K12" s="9">
-        <v>6.8893620346687596E-3</v>
-      </c>
-      <c r="L12" s="9">
-        <v>5.2500737925636597E-3</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+        <v>4.9703551197923898E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.18123321375177E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>-5.5652132996077902E-3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9.9129040660227395E-3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1.1315426694614E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4437277931194611E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="2"/>
+        <v>1.565568625032859E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="3"/>
+        <v>9.251919342783391E-3</v>
+      </c>
+      <c r="P12" s="5">
+        <f>O12/M12</f>
+        <v>0.37859860532883471</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>1-Q11</f>
+        <v>2.6760321540040044E-2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f>M12-S12</f>
+        <v>-1.4307122068805387E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <f>T12/S12</f>
+        <v>-0.36926941877549757</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:L13" si="4">B12/B10</f>
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9.0158702551470793E-3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.62802489273653E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6.7529566594936802E-3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.81722628587289E-3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.4141820036736899E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.17165968211658E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.1921937218790901E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.1876757693702901E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1.0136578298261201E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>6.8893620346687596E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5.2500737925636597E-3</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="S13">
+        <f>1-S12</f>
+        <v>0.96125559999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:L14" si="4">B13/B11</f>
         <v>9.44396186270933E-3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="4"/>
         <v>1.6746628928185455E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <f t="shared" si="4"/>
         <v>6.9664245698530117E-3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="4"/>
         <v>2.9058851711471741E-3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="4"/>
         <v>1.4480025761148306E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="4"/>
         <v>1.2128266502793887E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="4"/>
         <v>1.2545492760516414E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="4"/>
         <v>1.2018726887568984E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="4"/>
         <v>1.0080478286435202E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="4"/>
         <v>6.9583393854556102E-3</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="4"/>
         <v>5.3101605247177367E-3</v>
       </c>
-      <c r="M13" s="4">
-        <f>AVERAGE(B13:L13)</f>
+      <c r="M14" s="4">
+        <f>AVERAGE(B14:L14)</f>
         <v>9.9622173309573733E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <f t="shared" ref="B14:L14" si="5">B12/B11</f>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:L15" si="5">B13/B12</f>
         <v>0.19889559464527259</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>0.58458614684512955</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
         <v>0.2203795554688347</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="5"/>
         <v>9.2337457915894469E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="5"/>
         <v>0.60547147390203926</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="5"/>
         <v>0.34518453773641672</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="5"/>
         <v>0.23986087374957782</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="5"/>
         <v>1.0054540928442552</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="5"/>
         <v>-1.8214177521238186</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>0.69498927748958972</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="5"/>
         <v>0.46397488439942158</v>
       </c>
-      <c r="M14" s="4">
-        <f>AVERAGE(B14:L14)</f>
+      <c r="M15" s="4">
+        <f>AVERAGE(B15:L15)</f>
         <v>0.23906510389751026</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="K17" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="L18" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F26" s="8">
-        <v>1340000</v>
-      </c>
-      <c r="G26" s="8">
-        <f>F26/16</f>
-        <v>83750</v>
-      </c>
-      <c r="H26" s="8">
-        <f>G26/G27</f>
-        <v>1.2617381257649651</v>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F27">
-        <v>962462</v>
-      </c>
-      <c r="G27">
-        <f>F27/14.5</f>
-        <v>66376.68965517242</v>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <f>AVERAGE(B3:G3)</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.STDEV.P(B3:G3)</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D23">
+        <f>C23/SQRT(COUNT(B3:G3))*1.96</f>
+        <v>7.2655644005097924E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <f>AVERAGE(B4:G7)</f>
+        <v>1.3610049848024104</v>
+      </c>
+      <c r="C24" s="9">
+        <f>_xlfn.STDEV.P(B4:G7)</f>
+        <v>2.7230785865838134E-2</v>
+      </c>
+      <c r="D24">
+        <f>C24/SQRT(COUNT(B4:G7))*1.96</f>
+        <v>1.2244454617635417E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f>B23/B24</f>
+        <v>0.96803300364761813</v>
+      </c>
+      <c r="D25">
+        <f>SQRT((D23/B23)^2+(D24/B24)^2)*B25</f>
+        <v>1.0214967579388275E-2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f>1-B25</f>
+        <v>3.1966996352381871E-2</v>
+      </c>
+      <c r="D26">
+        <f>D25</f>
+        <v>1.0214967579388275E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>B26-E26</f>
+        <v>-6.7774036476181271E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <f>F26/E26</f>
+        <v>-0.17492601892449303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <f>B23</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" ref="C29:D29" si="6">C23</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="6"/>
+        <v>7.2655644005097924E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <f>AVERAGE(B5:L7)</f>
+        <v>1.3508395569357092</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.STDEV.P(B5:L7)</f>
+        <v>3.2283159492326796E-2</v>
+      </c>
+      <c r="D30">
+        <f>C30/SQRT(COUNT(B5:L7))*1.96</f>
+        <v>1.1957849617298327E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <f>B29/B30</f>
+        <v>0.97531771012563129</v>
+      </c>
+      <c r="D31">
+        <f>SQRT((D29/B29)^2+(D30/B30)^2)*B31</f>
+        <v>1.0171976316846474E-2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <f>1-B31</f>
+        <v>2.4682289874368712E-2</v>
+      </c>
+      <c r="D32">
+        <f>D31</f>
+        <v>1.0171976316846474E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <f>B32-E32</f>
+        <v>-1.4062110125631286E-2</v>
+      </c>
+      <c r="G32" s="7">
+        <f>F32/E32</f>
+        <v>-0.36294561602789788</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <f>B29</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" ref="C35:D35" si="7">C29</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="7"/>
+        <v>7.2655644005097924E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <f>AVERAGE(B5:F7)</f>
+        <v>1.3678357265552266</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.STDEV.P(B5:G7)</f>
+        <v>2.7113412432066344E-2</v>
+      </c>
+      <c r="D36">
+        <f>C36/SQRT(COUNT(B5:F7))*1.96</f>
+        <v>1.60230028194282E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <f>B35/B36</f>
+        <v>0.96319880950591918</v>
+      </c>
+      <c r="D37">
+        <f>SQRT((D35/B35)^2+(D36/B36)^2)*B37</f>
+        <v>1.2470816356674488E-2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <f>1-B37</f>
+        <v>3.6801190494080815E-2</v>
+      </c>
+      <c r="D38">
+        <f>D37</f>
+        <v>1.2470816356674488E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <f>B38-E38</f>
+        <v>-1.9432095059191828E-3</v>
+      </c>
+      <c r="G38" s="7">
+        <f>F38/E38</f>
+        <v>-5.015459023547101E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Transmission.xlsx
+++ b/Transmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928C6DA-BF2E-4E8F-A427-D6ABEB6E2991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26EF0C-8F7C-463B-83CE-0D1684BE4F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-110" windowWidth="18050" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="0" windowWidth="17520" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Names</t>
   </si>
@@ -130,10 +130,25 @@
     <t>First six (early sept)</t>
   </si>
   <si>
-    <t>No Io</t>
-  </si>
-  <si>
     <t>No Io and First six</t>
+  </si>
+  <si>
+    <t>No Io and all nights</t>
+  </si>
+  <si>
+    <t>Last Five</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Moons</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>Abs</t>
   </si>
 </sst>
 </file>
@@ -796,7 +811,7 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -2237,7 +2252,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B14667F8-DBB0-4F95-A6CE-91BC2D82D2A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2574,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3369,22 +3384,25 @@
         <v>0.23906510389751026</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
       <c r="B23" s="9">
         <f>AVERAGE(B3:G3)</f>
         <v>1.3174977434176582</v>
@@ -3397,8 +3415,19 @@
         <f>C23/SQRT(COUNT(B3:G3))*1.96</f>
         <v>7.2655644005097924E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f>C29/C23</f>
+        <v>3.4960607834295421</v>
+      </c>
+      <c r="I23">
+        <f>D29/D23</f>
+        <v>3.8297427069870862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" s="9">
         <f>AVERAGE(B4:G7)</f>
         <v>1.3610049848024104</v>
@@ -3411,8 +3440,19 @@
         <f>C24/SQRT(COUNT(B4:G7))*1.96</f>
         <v>1.2244454617635417E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <f>C30/C24</f>
+        <v>1.2868837257095489</v>
+      </c>
+      <c r="I24">
+        <f>D30/D24</f>
+        <v>1.3604783922106594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
       <c r="B25">
         <f>B23/B24</f>
         <v>0.96803300364761813</v>
@@ -3431,7 +3471,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
       <c r="B26">
         <f>1-B25</f>
         <v>3.1966996352381871E-2</v>
@@ -3452,156 +3495,281 @@
         <v>-0.17492601892449303</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9">
+        <f>AVERAGE(H3:L3)</f>
+        <v>1.3104592236269941</v>
+      </c>
+      <c r="C29">
+        <f>_xlfn.STDEV.P(H3:L3)</f>
+        <v>3.1744455723109716E-2</v>
+      </c>
+      <c r="D29">
+        <f>C29/SQRT(COUNT(H3:L3))*1.96</f>
+        <v>2.7825242274997379E-2</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9">
+        <f>AVERAGE(H4:L7)</f>
+        <v>1.33126839395956</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.STDEV.P(H4:L7)</f>
+        <v>3.5042855169028705E-2</v>
+      </c>
+      <c r="D30">
+        <f>C30/SQRT(COUNT(H4:L7))*1.96</f>
+        <v>1.6658315931697015E-2</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <f>B29/B30</f>
+        <v>0.98436891431736495</v>
+      </c>
+      <c r="D31">
+        <f>SQRT((D29/B29)^2+(D30/B30)^2)*B31</f>
+        <v>2.4260786684453389E-2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <f>1-B31</f>
+        <v>1.5631085682635049E-2</v>
+      </c>
+      <c r="D32">
+        <f>D31</f>
+        <v>2.4260786684453389E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <f>B32-E32</f>
+        <v>-2.311331431736495E-2</v>
+      </c>
+      <c r="G32" s="7">
+        <f>F32/E32</f>
+        <v>-0.59655883991918701</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9">
+        <f>AVERAGE(B3:L3)</f>
+        <v>1.3142984162400835</v>
+      </c>
+      <c r="C35" s="9">
+        <f>_xlfn.STDEV.P(B3:L3)</f>
+        <v>2.2700318153770247E-2</v>
+      </c>
+      <c r="D35">
+        <f>C35/SQRT(COUNT(B3:L3))*1.96</f>
+        <v>1.3415030759817117E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9">
+        <f>AVERAGE(B5:L7)</f>
+        <v>1.3508395569357092</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.STDEV.P(B5:L7)</f>
+        <v>3.2283159492326796E-2</v>
+      </c>
+      <c r="D36">
+        <f>C36/SQRT(COUNT(B5:L7))*1.96</f>
+        <v>1.1957849617298327E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f>B35/B36</f>
+        <v>0.97294931103548898</v>
+      </c>
+      <c r="D37">
+        <f>SQRT((D35/B35)^2+(D36/B36)^2)*B37</f>
+        <v>1.3145384294124207E-2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f>1-B37</f>
+        <v>2.7050688964511016E-2</v>
+      </c>
+      <c r="D38">
+        <f>D37</f>
+        <v>1.3145384294124207E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <f>B38-E38</f>
+        <v>-1.1693711035488982E-2</v>
+      </c>
+      <c r="G38" s="7">
+        <f>F38/E38</f>
+        <v>-0.30181680540901351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="9">
         <f>B23</f>
         <v>1.3174977434176582</v>
       </c>
-      <c r="C29" s="9">
-        <f t="shared" ref="C29:D29" si="6">C23</f>
+      <c r="C41" s="9">
+        <f>C23</f>
         <v>9.0800640176425234E-3</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="6"/>
+      <c r="D41" s="9">
+        <f>D23</f>
         <v>7.2655644005097924E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
-        <f>AVERAGE(B5:L7)</f>
-        <v>1.3508395569357092</v>
-      </c>
-      <c r="C30">
-        <f>_xlfn.STDEV.P(B5:L7)</f>
-        <v>3.2283159492326796E-2</v>
-      </c>
-      <c r="D30">
-        <f>C30/SQRT(COUNT(B5:L7))*1.96</f>
-        <v>1.1957849617298327E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <f>B29/B30</f>
-        <v>0.97531771012563129</v>
-      </c>
-      <c r="D31">
-        <f>SQRT((D29/B29)^2+(D30/B30)^2)*B31</f>
-        <v>1.0171976316846474E-2</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <f>1-B31</f>
-        <v>2.4682289874368712E-2</v>
-      </c>
-      <c r="D32">
-        <f>D31</f>
-        <v>1.0171976316846474E-2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3.8744399999999998E-2</v>
-      </c>
-      <c r="F32" s="3">
-        <f>B32-E32</f>
-        <v>-1.4062110125631286E-2</v>
-      </c>
-      <c r="G32" s="7">
-        <f>F32/E32</f>
-        <v>-0.36294561602789788</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
-        <f>B29</f>
-        <v>1.3174977434176582</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" ref="C35:D35" si="7">C29</f>
-        <v>9.0800640176425234E-3</v>
-      </c>
-      <c r="D35" s="9">
-        <f t="shared" si="7"/>
-        <v>7.2655644005097924E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
-        <f>AVERAGE(B5:F7)</f>
-        <v>1.3678357265552266</v>
-      </c>
-      <c r="C36">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="9">
+        <f>AVERAGE(B5:G7)</f>
+        <v>1.3635611235408978</v>
+      </c>
+      <c r="C42">
         <f>_xlfn.STDEV.P(B5:G7)</f>
         <v>2.7113412432066344E-2</v>
       </c>
-      <c r="D36">
-        <f>C36/SQRT(COUNT(B5:F7))*1.96</f>
-        <v>1.60230028194282E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <f>B35/B36</f>
-        <v>0.96319880950591918</v>
-      </c>
-      <c r="D37">
-        <f>SQRT((D35/B35)^2+(D36/B36)^2)*B37</f>
-        <v>1.2470816356674488E-2</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D42">
+        <f>C42/SQRT(COUNT(B5:G7))*1.96</f>
+        <v>1.4202873986992524E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <f>B41/B42</f>
+        <v>0.96621832396950269</v>
+      </c>
+      <c r="D43">
+        <f>SQRT((D41/B41)^2+(D42/B42)^2)*B43</f>
+        <v>1.138765092111237E-2</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <f>1-B37</f>
-        <v>3.6801190494080815E-2</v>
-      </c>
-      <c r="D38">
-        <f>D37</f>
-        <v>1.2470816356674488E-2</v>
-      </c>
-      <c r="E38" s="6">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <f>1-B43</f>
+        <v>3.378167603049731E-2</v>
+      </c>
+      <c r="D44">
+        <f>D43</f>
+        <v>1.138765092111237E-2</v>
+      </c>
+      <c r="E44" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="F38" s="3">
-        <f>B38-E38</f>
-        <v>-1.9432095059191828E-3</v>
-      </c>
-      <c r="G38" s="7">
-        <f>F38/E38</f>
-        <v>-5.015459023547101E-2</v>
+      <c r="F44" s="3">
+        <f>B44-E44</f>
+        <v>-4.9627239695026887E-3</v>
+      </c>
+      <c r="G44" s="7">
+        <f>F44/E44</f>
+        <v>-0.12808880688570964</v>
       </c>
     </row>
   </sheetData>

--- a/Transmission.xlsx
+++ b/Transmission.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26EF0C-8F7C-463B-83CE-0D1684BE4F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02445DDC-A2E2-4463-891A-BCCE1A5B94F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="17520" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="1830" windowWidth="17520" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Corrected for Moon ClrSlp" sheetId="3" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="42">
   <si>
     <t>Names</t>
   </si>
@@ -149,6 +150,15 @@
   </si>
   <si>
     <t>Abs</t>
+  </si>
+  <si>
+    <t>UNCORRECTED RATIOS</t>
+  </si>
+  <si>
+    <t>MOON RATIOS CORRECTED FOR SLOPE</t>
+  </si>
+  <si>
+    <t>Last Five and no IO</t>
   </si>
 </sst>
 </file>
@@ -757,37 +767,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -808,7 +788,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="20"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -823,7 +803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -865,7 +845,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$3:$L$3</c:f>
+              <c:f>Transmission!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -927,7 +907,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="20"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -942,7 +922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -984,7 +964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$8:$L$8</c:f>
+              <c:f>Transmission!$B$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1046,7 +1026,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1061,7 +1041,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1103,7 +1083,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$4:$L$4</c:f>
+              <c:f>Transmission!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1156,7 +1136,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1171,7 +1151,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1213,7 +1193,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$5:$L$5</c:f>
+              <c:f>Transmission!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1272,14 +1252,18 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1287,7 +1271,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1329,7 +1313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$6:$L$6</c:f>
+              <c:f>Transmission!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1388,7 +1372,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -1403,7 +1387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Transmission!$B$2:$L$2</c:f>
+              <c:f>Transmission!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1445,7 +1429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Transmission!$B$7:$L$7</c:f>
+              <c:f>Transmission!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1498,6 +1482,7 @@
         <c:axId val="635313912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="44075"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1515,7 +1500,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1523,10 +1508,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1537,12 +1519,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1555,6 +1534,7 @@
         <c:crossAx val="635326048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="635326048"/>
@@ -1586,10 +1566,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1600,12 +1577,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="4000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1622,13 +1596,15 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1642,12 +1618,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="3000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2252,7 +2225,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B14667F8-DBB0-4F95-A6CE-91BC2D82D2A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2263,7 +2236,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294438"/>
+    <xdr:ext cx="13001625" cy="9441656"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2589,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2603,501 +2576,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="14">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="14">
         <v>44076</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C3" s="14">
         <v>44077</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D3" s="14">
         <v>44078</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E3" s="14">
         <v>44087</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F3" s="14">
         <v>44088</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G3" s="14">
         <v>44089</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H3" s="14">
         <v>44098</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I3" s="14">
         <v>44099</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J3" s="14">
         <v>44111</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K3" s="14">
         <v>44112</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L3" s="14">
         <v>44113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1.31053592471522</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.3180147898819501</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.3255149864261599</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1.3294236804447499</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.3193608403941499</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.3021362386437201</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1.2633638234167901</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1.32281728848747</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1.31322809803021</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1.3592245152836699</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1.2936623929168301</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1.3142984162400799</v>
-      </c>
-      <c r="N3" s="9">
-        <v>2.2700318153769099E-2</v>
-      </c>
-      <c r="O3" s="9">
-        <v>6.8444034488859499E-3</v>
-      </c>
-      <c r="P3" s="1">
-        <f>O3/M3</f>
-        <v>5.2076479468538732E-3</v>
-      </c>
-      <c r="Q3" s="9">
-        <f>AVERAGE(B3:G3,I3:J3,L3)</f>
-        <v>1.3149660266600511</v>
-      </c>
-      <c r="R3">
-        <f>_xlfn.STDEV.P(B3:G3,I3:J3,L3)</f>
-        <v>1.080972007398808E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1.39026602776317</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.31053592471522</v>
       </c>
       <c r="C4" s="9">
-        <v>1.32455698354406</v>
+        <v>1.3180147898819501</v>
       </c>
       <c r="D4" s="9">
-        <v>1.3437713149717201</v>
+        <v>1.3255149864261599</v>
       </c>
       <c r="E4" s="9">
-        <v>1.37939673924573</v>
+        <v>1.3294236804447499</v>
       </c>
       <c r="F4" s="9">
-        <v>1.33124791614855</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <v>1.3401078624894101</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1.2911119934713799</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1.2666909767244401</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+        <v>1.3193608403941499</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.3021362386437201</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.2633638234167901</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.32281728848747</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.31322809803021</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1.3592245152836699</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.2936623929168301</v>
+      </c>
       <c r="M4" s="9">
-        <v>1.3333937267948099</v>
+        <v>1.3142984162400799</v>
       </c>
       <c r="N4" s="9">
-        <v>3.8443471651379603E-2</v>
+        <v>2.2700318153769099E-2</v>
       </c>
       <c r="O4" s="9">
-        <v>1.1591142827844601E-2</v>
+        <v>6.8444034488859499E-3</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P8" si="0">O4/M4</f>
-        <v>8.6929633722720445E-3</v>
+        <f>O4/M4</f>
+        <v>5.2076479468538732E-3</v>
       </c>
       <c r="Q4" s="9">
-        <f>AVERAGE(C4:I4)</f>
-        <v>1.3350321349784753</v>
+        <f>AVERAGE(B4:G4,I4:J4,L4)</f>
+        <v>1.3149660266600511</v>
       </c>
       <c r="R4">
-        <f>_xlfn.STDEV.P(C4:I4)</f>
-        <v>2.6215079401747894E-2</v>
+        <f>_xlfn.STDEV.P(B4:G4,I4:J4,L4)</f>
+        <v>1.080972007398808E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.39026602776317</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.32455698354406</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.3437713149717201</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.37939673924573</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.33124791614855</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>1.3401078624894101</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.2911119934713799</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.2666909767244401</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
+        <v>1.3333937267948099</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3.8443471651379603E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.1591142827844601E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P9" si="0">O5/M5</f>
+        <v>8.6929633722720445E-3</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>AVERAGE(C5:I5)</f>
+        <v>1.3350321349784753</v>
+      </c>
+      <c r="R5">
+        <f>_xlfn.STDEV.P(C5:I5)</f>
+        <v>2.6215079401747894E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="9">
         <v>1.35525957153332</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>1.3838685315935699</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>1.3591177192686601</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>1.3245390271084101</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G6" s="9">
         <v>1.3460474924090999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="9">
         <v>1.3670627471057</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="9">
         <v>1.3645079696737501</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J6" s="10">
         <v>1.30014614861981</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="9">
         <v>1.3959268086449499</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L6" s="10">
         <v>1.31818328751261</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="9">
         <v>1.35146593034699</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="9">
         <v>2.8299942110897099E-2</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O6" s="9">
         <v>8.5327535973294798E-3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>6.3137023329464829E-3</v>
       </c>
-      <c r="Q5" s="9">
-        <f>AVERAGE(B5:I5,K5)</f>
+      <c r="Q6" s="9">
+        <f>AVERAGE(B6:I6,K6)</f>
         <v>1.3620412334171825</v>
       </c>
-      <c r="R5">
-        <f>_xlfn.STDEV.P(B5:I5)</f>
+      <c r="R6">
+        <f>_xlfn.STDEV.P(B6:I6)</f>
         <v>1.7156636628689013E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
         <v>1.3869868886030301</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>1.3869598871814099</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>1.3761891095215999</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>1.3309374819703499</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>1.3822709814534</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>1.2795650561368701</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>1.32844339214369</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <v>1.3387921076490901</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>1.3628846375641901</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L7" s="10">
         <v>1.2987532518972</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>1.3471782794120799</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>3.6178358171505803E-2</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O7" s="9">
         <v>1.09081854169066E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>8.0970615274965872E-3</v>
       </c>
-      <c r="Q6" s="9">
-        <f>AVERAGE(C6:G6,I6:K6)</f>
+      <c r="Q7" s="9">
+        <f>AVERAGE(C7:G7,I7:K7)</f>
         <v>1.361683060760845</v>
       </c>
-      <c r="R6">
-        <f>_xlfn.STDEV.P(C6:G6,I6:K6)</f>
+      <c r="R7">
+        <f>_xlfn.STDEV.P(C7:G7,I7:K7)</f>
         <v>2.3688328593883437E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
         <v>1.3550637838864401</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>1.37034046772109</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>1.4169305237196099</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>1.3153442636025801</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <v>1.33103154263489</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>1.3704551496782</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>1.31821137191802</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>1.3596883934483199</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
         <v>1.3546331870761401</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>3.1286893404512801E-2</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O8" s="9">
         <v>9.4333532980558198E-3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>6.9637695193463453E-3</v>
       </c>
-      <c r="Q7" s="9">
-        <f>AVERAGE(D7:E7,G7:K7)</f>
+      <c r="Q8" s="9">
+        <f>AVERAGE(D8:E8,G8:K8)</f>
         <v>1.3457335675556485</v>
       </c>
-      <c r="R7">
-        <f>_xlfn.STDEV.P(D7:E7,G7:K7)</f>
+      <c r="R8">
+        <f>_xlfn.STDEV.P(D8:E8,G8:K8)</f>
         <v>2.2024586408008053E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="9">
         <v>1.3727627996482401</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>1.3557719360735401</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>1.36741587940828</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>1.3712610089392701</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>1.3509137372367299</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>1.34788757915502</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>1.32944180209172</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>1.3386296262417501</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>1.30596015122784</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>1.37283327988582</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>1.3084682697048999</v>
       </c>
-      <c r="M8" s="9">
-        <f>AVERAGE(B4:L7)</f>
+      <c r="M9" s="9">
+        <f>AVERAGE(B5:L8)</f>
         <v>1.3469627057932869</v>
       </c>
-      <c r="N8" s="9">
-        <f>_xlfn.STDEV.P(B4:L7)</f>
+      <c r="N9" s="9">
+        <f>_xlfn.STDEV.P(B5:L8)</f>
         <v>3.4519981232220637E-2</v>
       </c>
-      <c r="O8" s="11">
-        <f>N8/SQRT(COUNT(B8:L8))*1.96</f>
+      <c r="O9" s="11">
+        <f>N9/SQRT(COUNT(B9:L9))*1.96</f>
         <v>2.0400005274006979E-2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>1.5145189385174921E-2</v>
       </c>
-      <c r="Q8" s="9">
-        <f>AVERAGE(Q4:Q7)</f>
+      <c r="Q9" s="9">
+        <f>AVERAGE(Q5:Q8)</f>
         <v>1.351122499178038</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1.7503228114928601E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.1214952529482799E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.8468200338295201E-2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>7.7263051183526299E-3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>3.82087579143153E-2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2.7353681409698599E-2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3.16990434011475E-2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>3.1797159424971001E-2</v>
-      </c>
-      <c r="J9" s="9">
-        <v>2.6475934654660201E-2</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1.6381642103762101E-2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>9.7150178077086702E-3</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="9">
-        <v>1.2376651292720999E-2</v>
+        <v>1.7503228114928601E-2</v>
       </c>
       <c r="C10" s="9">
-        <v>2.2072304608013401E-2</v>
+        <v>3.1214952529482799E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>9.2341001691476198E-3</v>
+        <v>1.8468200338295201E-2</v>
       </c>
       <c r="E10" s="9">
-        <v>3.8631525591763102E-3</v>
+        <v>7.7263051183526299E-3</v>
       </c>
       <c r="F10" s="9">
-        <v>1.9104378957157601E-2</v>
+        <v>3.82087579143153E-2</v>
       </c>
       <c r="G10" s="9">
-        <v>1.57926553252167E-2</v>
+        <v>2.7353681409698599E-2</v>
       </c>
       <c r="H10" s="9">
-        <v>1.5849521700573702E-2</v>
+        <v>3.16990434011475E-2</v>
       </c>
       <c r="I10" s="9">
-        <v>1.5898579712485501E-2</v>
+        <v>3.1797159424971001E-2</v>
       </c>
       <c r="J10" s="9">
-        <v>1.32379673273301E-2</v>
+        <v>2.6475934654660201E-2</v>
       </c>
       <c r="K10" s="9">
-        <v>9.4579454783751699E-3</v>
+        <v>1.6381642103762101E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>6.8695549711788604E-3</v>
+        <v>9.7150178077086702E-3</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -3105,424 +3042,445 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9">
-        <v>0.95467033711215799</v>
+        <v>1.2376651292720999E-2</v>
       </c>
       <c r="C11" s="9">
-        <v>0.97215081298928097</v>
+        <v>2.2072304608013401E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>0.969357608308413</v>
+        <v>9.2341001691476198E-3</v>
       </c>
       <c r="E11" s="9">
-        <v>0.96948988688383597</v>
+        <v>3.8631525591763102E-3</v>
       </c>
       <c r="F11" s="9">
-        <v>0.97664329263012395</v>
+        <v>1.9104378957157601E-2</v>
       </c>
       <c r="G11" s="9">
-        <v>0.96605700562951402</v>
+        <v>1.57926553252167E-2</v>
       </c>
       <c r="H11" s="9">
-        <v>0.95029644880207598</v>
+        <v>1.5849521700573702E-2</v>
       </c>
       <c r="I11" s="9">
-        <v>0.98818766786248202</v>
+        <v>1.5898579712485501E-2</v>
       </c>
       <c r="J11" s="9">
-        <v>1.0055652132996</v>
+        <v>1.32379673273301E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>0.99008709593397703</v>
+        <v>9.4579454783751699E-3</v>
       </c>
       <c r="L11" s="9">
-        <v>0.98868457330538595</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" ref="M11:M12" si="1">AVERAGE(B11:L11)</f>
-        <v>0.97556272206880434</v>
-      </c>
-      <c r="N11" s="9">
-        <f t="shared" ref="N11:N12" si="2">_xlfn.STDEV.P(B11:L11)</f>
-        <v>1.5655686250327309E-2</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" ref="O11:O12" si="3">N11/SQRT(COUNT(B11:L11))*1.96</f>
-        <v>9.2519193427826347E-3</v>
-      </c>
-      <c r="P11" s="1">
-        <f>O11/M11</f>
-        <v>9.4836745331584298E-3</v>
-      </c>
-      <c r="Q11" s="12">
-        <f>Q3/Q8</f>
-        <v>0.97323967845995996</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>6.8695549711788604E-3</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.95467033711215799</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.97215081298928097</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.969357608308413</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.96948988688383597</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.97664329263012395</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.96605700562951402</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.95029644880207598</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.98818766786248202</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1.0055652132996</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.99008709593397703</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.98868457330538595</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" ref="M12:M13" si="1">AVERAGE(B12:L12)</f>
+        <v>0.97556272206880434</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" ref="N12:N13" si="2">_xlfn.STDEV.P(B12:L12)</f>
+        <v>1.5655686250327309E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" ref="O12:O13" si="3">N12/SQRT(COUNT(B12:L12))*1.96</f>
+        <v>9.2519193427826347E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <f>O12/M12</f>
+        <v>9.4836745331584298E-3</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>Q4/Q9</f>
+        <v>0.97323967845995996</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="9">
         <v>4.5329662887842001E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <v>2.7849187010718399E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>3.0642391691586199E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>3.0510113116163098E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>2.33567073698751E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>3.3942994370485403E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>4.9703551197923898E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>1.18123321375177E-2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="10">
         <v>-5.5652132996077902E-3</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>9.9129040660227395E-3</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L13" s="10">
         <v>1.1315426694614E-2</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M13" s="12">
         <f t="shared" si="1"/>
         <v>2.4437277931194611E-2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <f t="shared" si="2"/>
         <v>1.565568625032859E-2</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O13" s="11">
         <f t="shared" si="3"/>
         <v>9.251919342783391E-3</v>
       </c>
-      <c r="P12" s="5">
-        <f>O12/M12</f>
+      <c r="P13" s="5">
+        <f>O13/M13</f>
         <v>0.37859860532883471</v>
       </c>
-      <c r="Q12" s="12">
-        <f>1-Q11</f>
+      <c r="Q13" s="12">
+        <f>1-Q12</f>
         <v>2.6760321540040044E-2</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S13" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="T12" s="3">
-        <f>M12-S12</f>
+      <c r="T13" s="3">
+        <f>M13-S13</f>
         <v>-1.4307122068805387E-2</v>
       </c>
-      <c r="U12" s="7">
-        <f>T12/S12</f>
+      <c r="U13" s="7">
+        <f>T13/S13</f>
         <v>-0.36926941877549757</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>9.0158702551470793E-3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>1.62802489273653E-2</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>6.7529566594936802E-3</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>2.81722628587289E-3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>1.4141820036736899E-2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>1.17165968211658E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>1.1921937218790901E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>1.1876757693702901E-2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>1.0136578298261201E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>6.8893620346687596E-3</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>5.2500737925636597E-3</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="S13">
-        <f>1-S12</f>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="S14">
+        <f>1-S13</f>
         <v>0.96125559999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <f t="shared" ref="B14:L14" si="4">B13/B11</f>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:L15" si="4">B14/B12</f>
         <v>9.44396186270933E-3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="4"/>
         <v>1.6746628928185455E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="4"/>
         <v>6.9664245698530117E-3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="4"/>
         <v>2.9058851711471741E-3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="4"/>
         <v>1.4480025761148306E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="4"/>
         <v>1.2128266502793887E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="4"/>
         <v>1.2545492760516414E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="4"/>
         <v>1.2018726887568984E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="4"/>
         <v>1.0080478286435202E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="4"/>
         <v>6.9583393854556102E-3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <f t="shared" si="4"/>
         <v>5.3101605247177367E-3</v>
       </c>
-      <c r="M14" s="4">
-        <f>AVERAGE(B14:L14)</f>
+      <c r="M15" s="4">
+        <f>AVERAGE(B15:L15)</f>
         <v>9.9622173309573733E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B15" s="2">
-        <f t="shared" ref="B15:L15" si="5">B13/B12</f>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:L16" si="5">B14/B13</f>
         <v>0.19889559464527259</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>0.58458614684512955</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="5"/>
         <v>0.2203795554688347</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="5"/>
         <v>9.2337457915894469E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="5"/>
         <v>0.60547147390203926</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="5"/>
         <v>0.34518453773641672</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="5"/>
         <v>0.23986087374957782</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="5"/>
         <v>1.0054540928442552</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="5"/>
         <v>-1.8214177521238186</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="5"/>
         <v>0.69498927748958972</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="5"/>
         <v>0.46397488439942158</v>
       </c>
-      <c r="M15" s="4">
-        <f>AVERAGE(B15:L15)</f>
+      <c r="M16" s="4">
+        <f>AVERAGE(B16:L16)</f>
         <v>0.23906510389751026</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K18" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L19" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="9">
-        <f>AVERAGE(B3:G3)</f>
-        <v>1.3174977434176582</v>
-      </c>
-      <c r="C23">
-        <f>_xlfn.STDEV.P(B3:G3)</f>
-        <v>9.0800640176425234E-3</v>
-      </c>
-      <c r="D23">
-        <f>C23/SQRT(COUNT(B3:G3))*1.96</f>
-        <v>7.2655644005097924E-3</v>
-      </c>
-      <c r="H23">
-        <f>C29/C23</f>
-        <v>3.4960607834295421</v>
-      </c>
-      <c r="I23">
-        <f>D29/D23</f>
-        <v>3.8297427069870862</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="9">
-        <f>AVERAGE(B4:G7)</f>
-        <v>1.3610049848024104</v>
-      </c>
-      <c r="C24" s="9">
-        <f>_xlfn.STDEV.P(B4:G7)</f>
-        <v>2.7230785865838134E-2</v>
+        <f>AVERAGE(B4:G4)</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.STDEV.P(B4:G4)</f>
+        <v>9.0800640176425234E-3</v>
       </c>
       <c r="D24">
-        <f>C24/SQRT(COUNT(B4:G7))*1.96</f>
-        <v>1.2244454617635417E-2</v>
+        <f>C24/SQRT(COUNT(B4:G4))*1.96</f>
+        <v>7.2655644005097924E-3</v>
       </c>
       <c r="H24">
         <f>C30/C24</f>
-        <v>1.2868837257095489</v>
+        <v>3.4960607834295421</v>
       </c>
       <c r="I24">
         <f>D30/D24</f>
-        <v>1.3604783922106594</v>
+        <v>3.8297427069870862</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <f>B23/B24</f>
-        <v>0.96803300364761813</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="9">
+        <f>AVERAGE(B5:G8)</f>
+        <v>1.3610049848024104</v>
+      </c>
+      <c r="C25" s="9">
+        <f>_xlfn.STDEV.P(B5:G8)</f>
+        <v>2.7230785865838134E-2</v>
       </c>
       <c r="D25">
-        <f>SQRT((D23/B23)^2+(D24/B24)^2)*B25</f>
-        <v>1.0214967579388275E-2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>28</v>
+        <f>C25/SQRT(COUNT(B5:G8))*1.96</f>
+        <v>1.2244454617635417E-2</v>
+      </c>
+      <c r="H25">
+        <f>C31/C25</f>
+        <v>1.2868837257095489</v>
+      </c>
+      <c r="I25">
+        <f>D31/D25</f>
+        <v>1.3604783922106594</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>B24/B25</f>
+        <v>0.96803300364761813</v>
+      </c>
+      <c r="D26">
+        <f>SQRT((D24/B24)^2+(D25/B25)^2)*B26</f>
+        <v>1.0214967579388275E-2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B26">
-        <f>1-B25</f>
+      <c r="B27">
+        <f>1-B26</f>
         <v>3.1966996352381871E-2</v>
       </c>
-      <c r="D26">
-        <f>D25</f>
+      <c r="D27">
+        <f>D26</f>
         <v>1.0214967579388275E-2</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="F26" s="3">
-        <f>B26-E26</f>
+      <c r="F27" s="3">
+        <f>B27-E27</f>
         <v>-6.7774036476181271E-3</v>
       </c>
-      <c r="G26" s="7">
-        <f>F26/E26</f>
+      <c r="G27" s="7">
+        <f>F27/E27</f>
         <v>-0.17492601892449303</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="9">
-        <f>AVERAGE(H3:L3)</f>
-        <v>1.3104592236269941</v>
-      </c>
-      <c r="C29">
-        <f>_xlfn.STDEV.P(H3:L3)</f>
-        <v>3.1744455723109716E-2</v>
-      </c>
-      <c r="D29">
-        <f>C29/SQRT(COUNT(H3:L3))*1.96</f>
-        <v>2.7825242274997379E-2</v>
+      <c r="B29" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -3530,19 +3488,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="9">
-        <f>AVERAGE(H4:L7)</f>
-        <v>1.33126839395956</v>
+        <f>AVERAGE(H4:L4)</f>
+        <v>1.3104592236269941</v>
       </c>
       <c r="C30">
-        <f>_xlfn.STDEV.P(H4:L7)</f>
-        <v>3.5042855169028705E-2</v>
+        <f>_xlfn.STDEV.P(H4:L4)</f>
+        <v>3.1744455723109716E-2</v>
       </c>
       <c r="D30">
-        <f>C30/SQRT(COUNT(H4:L7))*1.96</f>
-        <v>1.6658315931697015E-2</v>
+        <f>C30/SQRT(COUNT(H4:L4))*1.96</f>
+        <v>2.7825242274997379E-2</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -3550,226 +3508,1741 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <f>B29/B30</f>
-        <v>0.98436891431736495</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="9">
+        <f>AVERAGE(H5:L8)</f>
+        <v>1.33126839395956</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.STDEV.P(H5:L8)</f>
+        <v>3.5042855169028705E-2</v>
       </c>
       <c r="D31">
-        <f>SQRT((D29/B29)^2+(D30/B30)^2)*B31</f>
-        <v>2.4260786684453389E-2</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>28</v>
-      </c>
+        <f>C31/SQRT(COUNT(H5:L8))*1.96</f>
+        <v>1.6658315931697015E-2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <f>B30/B31</f>
+        <v>0.98436891431736495</v>
+      </c>
+      <c r="D32">
+        <f>SQRT((D30/B30)^2+(D31/B31)^2)*B32</f>
+        <v>2.4260786684453389E-2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <f>1-B31</f>
+      <c r="B33">
+        <f>1-B32</f>
         <v>1.5631085682635049E-2</v>
       </c>
-      <c r="D32">
-        <f>D31</f>
+      <c r="D33">
+        <f>D32</f>
         <v>2.4260786684453389E-2</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="F32" s="3">
-        <f>B32-E32</f>
+      <c r="F33" s="3">
+        <f>B33-E33</f>
         <v>-2.311331431736495E-2</v>
       </c>
-      <c r="G32" s="7">
-        <f>F32/E32</f>
+      <c r="G33" s="7">
+        <f>F33/E33</f>
         <v>-0.59655883991918701</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="9">
-        <f>AVERAGE(B3:L3)</f>
-        <v>1.3142984162400835</v>
-      </c>
-      <c r="C35" s="9">
-        <f>_xlfn.STDEV.P(B3:L3)</f>
-        <v>2.2700318153770247E-2</v>
-      </c>
-      <c r="D35">
-        <f>C35/SQRT(COUNT(B3:L3))*1.96</f>
-        <v>1.3415030759817117E-2</v>
-      </c>
+      <c r="B35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9">
-        <f>AVERAGE(B5:L7)</f>
-        <v>1.3508395569357092</v>
+        <f>AVERAGE(H4:L4)</f>
+        <v>1.3104592236269941</v>
       </c>
       <c r="C36">
-        <f>_xlfn.STDEV.P(B5:L7)</f>
-        <v>3.2283159492326796E-2</v>
+        <f>_xlfn.STDEV.P(H4:L4)</f>
+        <v>3.1744455723109716E-2</v>
       </c>
       <c r="D36">
-        <f>C36/SQRT(COUNT(B5:L7))*1.96</f>
-        <v>1.1957849617298327E-2</v>
-      </c>
+        <f>C36/SQRT(COUNT(H4:L4))*1.96</f>
+        <v>2.7825242274997379E-2</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <f>B35/B36</f>
-        <v>0.97294931103548898</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <f>AVERAGE(H6:L8)</f>
+        <v>1.3381179903305207</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.STDEV.P(H6:L8)</f>
+        <v>3.2024851695553448E-2</v>
       </c>
       <c r="D37">
-        <f>SQRT((D35/B35)^2+(D36/B36)^2)*B37</f>
-        <v>1.3145384294124207E-2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>28</v>
-      </c>
+        <f>C37/SQRT(COUNT(H6:L8))*1.96</f>
+        <v>1.6775643206981054E-2</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>B36/B37</f>
+        <v>0.97933009876304344</v>
+      </c>
+      <c r="D38">
+        <f>SQRT((D36/B36)^2+(D37/B37)^2)*B38</f>
+        <v>2.414835655594887E-2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <f>1-B37</f>
-        <v>2.7050688964511016E-2</v>
-      </c>
-      <c r="D38">
-        <f>D37</f>
-        <v>1.3145384294124207E-2</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="B39">
+        <f>1-B38</f>
+        <v>2.0669901236956556E-2</v>
+      </c>
+      <c r="D39">
+        <f>D38</f>
+        <v>2.414835655594887E-2</v>
+      </c>
+      <c r="E39" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="F38" s="3">
-        <f>B38-E38</f>
-        <v>-1.1693711035488982E-2</v>
-      </c>
-      <c r="G38" s="7">
-        <f>F38/E38</f>
-        <v>-0.30181680540901351</v>
-      </c>
+      <c r="F39" s="3">
+        <f>B39-E39</f>
+        <v>-1.8074498763043442E-2</v>
+      </c>
+      <c r="G39" s="7">
+        <f>F39/E39</f>
+        <v>-0.4665060954110386</v>
+      </c>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="16"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="9">
-        <f>B23</f>
-        <v>1.3174977434176582</v>
-      </c>
-      <c r="C41" s="9">
-        <f>C23</f>
-        <v>9.0800640176425234E-3</v>
-      </c>
-      <c r="D41" s="9">
-        <f>D23</f>
-        <v>7.2655644005097924E-3</v>
+      <c r="B41" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="9">
-        <f>AVERAGE(B5:G7)</f>
-        <v>1.3635611235408978</v>
-      </c>
-      <c r="C42">
-        <f>_xlfn.STDEV.P(B5:G7)</f>
-        <v>2.7113412432066344E-2</v>
+        <f>AVERAGE(B4:L4)</f>
+        <v>1.3142984162400835</v>
+      </c>
+      <c r="C42" s="9">
+        <f>_xlfn.STDEV.P(B4:L4)</f>
+        <v>2.2700318153770247E-2</v>
       </c>
       <c r="D42">
-        <f>C42/SQRT(COUNT(B5:G7))*1.96</f>
-        <v>1.4202873986992524E-2</v>
+        <f>C42/SQRT(COUNT(B4:L4))*1.96</f>
+        <v>1.3415030759817117E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43">
-        <f>B41/B42</f>
-        <v>0.96621832396950269</v>
+        <v>36</v>
+      </c>
+      <c r="B43" s="9">
+        <f>AVERAGE(B6:L8)</f>
+        <v>1.3508395569357092</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.STDEV.P(B6:L8)</f>
+        <v>3.2283159492326796E-2</v>
       </c>
       <c r="D43">
-        <f>SQRT((D41/B41)^2+(D42/B42)^2)*B43</f>
-        <v>1.138765092111237E-2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>28</v>
+        <f>C43/SQRT(COUNT(B6:L8))*1.96</f>
+        <v>1.1957849617298327E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <f>B42/B43</f>
+        <v>0.97294931103548898</v>
+      </c>
+      <c r="D44">
+        <f>SQRT((D42/B42)^2+(D43/B43)^2)*B44</f>
+        <v>1.3145384294124207E-2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
+      <c r="B45">
+        <f>1-B44</f>
+        <v>2.7050688964511016E-2</v>
+      </c>
+      <c r="D45">
+        <f>D44</f>
+        <v>1.3145384294124207E-2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <f>B45-E45</f>
+        <v>-1.1693711035488982E-2</v>
+      </c>
+      <c r="G45" s="7">
+        <f>F45/E45</f>
+        <v>-0.30181680540901351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B24</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C48" s="9">
+        <f>C24</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D48" s="9">
+        <f>D24</f>
+        <v>7.2655644005097924E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="9">
+        <f>AVERAGE(B6:G8)</f>
+        <v>1.3635611235408978</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.STDEV.P(B6:G8)</f>
+        <v>2.7113412432066344E-2</v>
+      </c>
+      <c r="D49">
+        <f>C49/SQRT(COUNT(B6:G8))*1.96</f>
+        <v>1.4202873986992524E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <f>B48/B49</f>
+        <v>0.96621832396950269</v>
+      </c>
+      <c r="D50">
+        <f>SQRT((D48/B48)^2+(D49/B49)^2)*B50</f>
+        <v>1.138765092111237E-2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <f>1-B50</f>
+        <v>3.378167603049731E-2</v>
+      </c>
+      <c r="D51">
+        <f>D50</f>
+        <v>1.138765092111237E-2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <f>B51-E51</f>
+        <v>-4.9627239695026887E-3</v>
+      </c>
+      <c r="G51" s="7">
+        <f>F51/E51</f>
+        <v>-0.12808880688570964</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF8F06-C3C6-4CCB-BB0C-8503114DC839}">
+  <dimension ref="A1:U51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="14">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="14">
+        <v>44077</v>
+      </c>
+      <c r="D3" s="14">
+        <v>44078</v>
+      </c>
+      <c r="E3" s="14">
+        <v>44087</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44088</v>
+      </c>
+      <c r="G3" s="14">
+        <v>44089</v>
+      </c>
+      <c r="H3" s="14">
+        <v>44098</v>
+      </c>
+      <c r="I3" s="14">
+        <v>44099</v>
+      </c>
+      <c r="J3" s="14">
+        <v>44111</v>
+      </c>
+      <c r="K3" s="14">
+        <v>44112</v>
+      </c>
+      <c r="L3" s="14">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.31053592471522</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.3180147898819501</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.3255149864261599</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.3294236804447499</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.3193608403941499</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.3021362386437201</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.2633638234167901</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.32281728848747</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.31322809803021</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1.3592245152836699</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.2936623929168301</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.3142984162400799</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2.2700318153769099E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>6.8444034488859499E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <f>O4/M4</f>
+        <v>5.2076479468538732E-3</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>AVERAGE(B4:G4,I4:J4,L4)</f>
+        <v>1.3149660266600511</v>
+      </c>
+      <c r="R4">
+        <f>_xlfn.STDEV.P(B4:G4,I4:J4,L4)</f>
+        <v>1.080972007398808E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <f>Transmission!B5*1.02277</f>
+        <v>1.4219223852153373</v>
+      </c>
+      <c r="C5" s="13">
+        <f>Transmission!C5*1.02277</f>
+        <v>1.3547171460593583</v>
+      </c>
+      <c r="D5" s="13">
+        <f>Transmission!D5*1.02277</f>
+        <v>1.374368987813626</v>
+      </c>
+      <c r="E5" s="13">
+        <f>Transmission!E5*1.02277</f>
+        <v>1.4108056029983553</v>
+      </c>
+      <c r="F5" s="13">
+        <f>Transmission!F5*1.02277</f>
+        <v>1.3615604311992524</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <f>Transmission!H5*1.02277</f>
+        <v>1.3706221185182939</v>
+      </c>
+      <c r="I5" s="13">
+        <f>Transmission!I5*1.02277</f>
+        <v>1.3205106135627231</v>
+      </c>
+      <c r="J5" s="10">
+        <f>Transmission!J5*1.02277</f>
+        <v>1.2955335302644555</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9">
+        <f>AVERAGE(B5:L5)</f>
+        <v>1.3637551019539251</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3.8443471651379603E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.1591142827844601E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P9" si="0">O5/M5</f>
+        <v>8.4994313210908241E-3</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>AVERAGE(C5:I5)</f>
+        <v>1.3654308166919347</v>
+      </c>
+      <c r="R5">
+        <f>_xlfn.STDEV.P(C5:I5)</f>
+        <v>2.6811996759725728E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9">
+        <f>Transmission!B6*1.0097</f>
+        <v>1.3684055893771934</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>Transmission!D6*1.0097</f>
+        <v>1.3972920563500275</v>
+      </c>
+      <c r="E6" s="9">
+        <f>Transmission!E6*1.0097</f>
+        <v>1.3723011611455662</v>
+      </c>
+      <c r="F6" s="9">
+        <f>Transmission!F6*1.0097</f>
+        <v>1.3373870556713616</v>
+      </c>
+      <c r="G6" s="9">
+        <f>Transmission!G6*1.0097</f>
+        <v>1.3591041530854682</v>
+      </c>
+      <c r="H6" s="9">
+        <f>Transmission!H6*1.0097</f>
+        <v>1.3803232557526253</v>
+      </c>
+      <c r="I6" s="9">
+        <f>Transmission!I6*1.0097</f>
+        <v>1.3777436969795855</v>
+      </c>
+      <c r="J6" s="10">
+        <f>Transmission!J6*1.0097</f>
+        <v>1.3127575662614221</v>
+      </c>
+      <c r="K6" s="9">
+        <f>Transmission!K6*1.0097</f>
+        <v>1.4094672986888059</v>
+      </c>
+      <c r="L6" s="10">
+        <f>Transmission!L6*1.0097</f>
+        <v>1.3309696654014824</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:M8" si="1">AVERAGE(B6:L6)</f>
+        <v>1.3645751498713541</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2.8299942110897099E-2</v>
+      </c>
+      <c r="O6" s="9">
+        <v>8.5327535973294798E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2530477695815498E-3</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>AVERAGE(B6:I6,K6)</f>
+        <v>1.3752530333813293</v>
+      </c>
+      <c r="R6">
+        <f>_xlfn.STDEV.P(B6:I6)</f>
+        <v>1.7323056003987303E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
+        <f>Transmission!C7*1.006975</f>
+        <v>1.3966611221510361</v>
+      </c>
+      <c r="D7" s="9">
+        <f>Transmission!D7*1.006975</f>
+        <v>1.3966339323945003</v>
+      </c>
+      <c r="E7" s="9">
+        <f>Transmission!E7*1.006975</f>
+        <v>1.3857880285605131</v>
+      </c>
+      <c r="F7" s="9">
+        <f>Transmission!F7*1.006975</f>
+        <v>1.340220770907093</v>
+      </c>
+      <c r="G7" s="9">
+        <f>Transmission!G7*1.006975</f>
+        <v>1.3919123215490374</v>
+      </c>
+      <c r="H7" s="10">
+        <f>Transmission!H7*1.006975</f>
+        <v>1.2884900224034248</v>
+      </c>
+      <c r="I7" s="9">
+        <f>Transmission!I7*1.006975</f>
+        <v>1.3377092848038923</v>
+      </c>
+      <c r="J7" s="9">
+        <f>Transmission!J7*1.006975</f>
+        <v>1.3481301825999423</v>
+      </c>
+      <c r="K7" s="9">
+        <f>Transmission!K7*1.006975</f>
+        <v>1.3723907579112002</v>
+      </c>
+      <c r="L7" s="10">
+        <f>Transmission!L7*1.006975</f>
+        <v>1.307812055829183</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3565748479109823</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3.6178358171505803E-2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.09081854169066E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0409757218367576E-3</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>AVERAGE(C7:G7,I7:K7)</f>
+        <v>1.3711808001096517</v>
+      </c>
+      <c r="R7">
+        <f>_xlfn.STDEV.P(C7:G7,I7:K7)</f>
+        <v>2.3853554685825781E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>Transmission!D8*1.013139</f>
+        <v>1.372867966942924</v>
+      </c>
+      <c r="E8" s="9">
+        <f>Transmission!E8*1.013139</f>
+        <v>1.3883453711264775</v>
+      </c>
+      <c r="F8" s="10">
+        <f>Transmission!F8*1.013139</f>
+        <v>1.4355475738707619</v>
+      </c>
+      <c r="G8" s="9">
+        <f>Transmission!G8*1.013139</f>
+        <v>1.3326265718820545</v>
+      </c>
+      <c r="H8" s="9">
+        <f>Transmission!H8*1.013139</f>
+        <v>1.3485199660735698</v>
+      </c>
+      <c r="I8" s="9">
+        <f>Transmission!I8*1.013139</f>
+        <v>1.388461559889822</v>
+      </c>
+      <c r="J8" s="9">
+        <f>Transmission!J8*1.013139</f>
+        <v>1.3355313511336508</v>
+      </c>
+      <c r="K8" s="9">
+        <f>Transmission!K8*1.013139</f>
+        <v>1.3775533392498374</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3724317125211374</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3.1286893404512801E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>9.4333532980558198E-3</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8734591397096798E-3</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>AVERAGE(D8:E8,G8:K8)</f>
+        <v>1.3634151608997624</v>
+      </c>
+      <c r="R8">
+        <f>_xlfn.STDEV.P(D8:E8,G8:K8)</f>
+        <v>2.2313967448822875E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9">
+        <f>AVERAGE(B5:B8)</f>
+        <v>1.3951639872962653</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9:L9" si="2">AVERAGE(C5:C8)</f>
+        <v>1.3756891341051971</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3852907358752695</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3893100409577279</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3686789579121172</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3612143488388533</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3469888406869786</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3561062888090059</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3229881575648677</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3864704652832813</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3193908606153326</v>
+      </c>
+      <c r="M9" s="9">
+        <f>AVERAGE(B5:L8)</f>
+        <v>1.3639165137117737</v>
+      </c>
+      <c r="N9" s="9">
+        <f>_xlfn.STDEV.P(B5:L8)</f>
+        <v>3.4547239623077264E-2</v>
+      </c>
+      <c r="O9" s="11">
+        <f>N9/SQRT(COUNT(B9:L9))*1.96</f>
+        <v>2.0416113953600264E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4968741670294527E-2</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>AVERAGE(Q5:Q8)</f>
+        <v>1.3688199527706697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9">
+        <f>_xlfn.STDEV.P(B5:B8)</f>
+        <v>2.6758397919071975E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:L10" si="3">_xlfn.STDEV.P(C5:C8)</f>
+        <v>2.0971988045838885E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1686633059613408E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="3"/>
+        <v>1.3826571692907861E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>3.9721331725674859E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="3"/>
+        <v>2.424925734920895E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="3"/>
+        <v>3.5686731197822882E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>2.7930909632772234E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>2.0297011395713882E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6397231911323844E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1578804786149699E-2</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <f>B10/SQRT(COUNT(B5:B8))*1.96</f>
+        <v>3.7085247459637039E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11:L11" si="4">C10/SQRT(COUNT(C5:C8))*1.96</f>
+        <v>2.9065692525864738E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.145290039842114E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.3550040259049703E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="4"/>
+        <v>3.8926905091161361E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="4"/>
+        <v>2.7440617906100025E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="4"/>
+        <v>3.4972996573866426E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>2.737229144011679E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.9891071167799604E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8555214665616385E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6047404709350538E-2</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9">
+        <f>B4/B9</f>
+        <v>0.93934185274875903</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ref="C12:L12" si="5">C4/C9</f>
+        <v>0.95807603419012199</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.95684967212940941</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.95689489117080373</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.96396662838069724</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.95659896602946615</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.93791706750329218</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.97545251386543474</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.992622715873268</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.98034869787576429</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.98049973782105526</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" ref="M12:M13" si="6">AVERAGE(B12:L12)</f>
+        <v>0.96350625250800637</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" ref="N12:N13" si="7">_xlfn.STDEV.P(B12:L12)</f>
+        <v>1.6423604680708182E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" ref="O12:O13" si="8">N12/SQRT(COUNT(B12:L12))*1.96</f>
+        <v>9.7057301349841932E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <f>O12/M12</f>
+        <v>1.0073344215172638E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>Q4/Q9</f>
+        <v>0.96065667657633769</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9">
+        <f>1-B12</f>
+        <v>6.0658147251240968E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:L13" si="9">1-C12</f>
+        <v>4.1923965809878005E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="9"/>
+        <v>4.3150327870590588E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="9"/>
+        <v>4.310510882919627E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="9"/>
+        <v>3.6033371619302756E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="9"/>
+        <v>4.3401033970533853E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="9"/>
+        <v>6.2082932496707821E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="9"/>
+        <v>2.4547486134565255E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="9"/>
+        <v>7.3772841267319977E-3</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="9"/>
+        <v>1.9651302124235714E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="9"/>
+        <v>1.9500262178944738E-2</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="6"/>
+        <v>3.6493747491993453E-2</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="7"/>
+        <v>1.6423604680708175E-2</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="8"/>
+        <v>9.7057301349841897E-3</v>
+      </c>
+      <c r="P13" s="5">
+        <f>O13/M13</f>
+        <v>0.26595597333799659</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>1-Q12</f>
+        <v>3.9343323423662313E-2</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f>M13-S13</f>
+        <v>-2.2506525080065454E-3</v>
+      </c>
+      <c r="U13" s="7">
+        <f>T13/S13</f>
+        <v>-5.8089749951129595E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9">
+        <v>9.0158702551470793E-3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.62802489273653E-2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6.7529566594936802E-3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.81722628587289E-3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.4141820036736899E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.17165968211658E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1.1921937218790901E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.1876757693702901E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1.0136578298261201E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>6.8893620346687596E-3</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5.2500737925636597E-3</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="S14">
+        <f>1-S13</f>
+        <v>0.96125559999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:L15" si="10">B14/B12</f>
+        <v>9.5980714888454013E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6992648126437346E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="10"/>
+        <v>7.0574896519172078E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="10"/>
+        <v>2.9441334799330861E-3</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.467044565691324E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2248180519991167E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2711078230537748E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2175639023819584E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="10"/>
+        <v>1.0211914492953611E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="10"/>
+        <v>7.027460789815647E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3544877066778133E-3</v>
+      </c>
+      <c r="M15" s="4">
+        <f>AVERAGE(B15:L15)</f>
+        <v>1.0090140833440168E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:L16" si="11">B14/B13</f>
+        <v>0.14863411864203666</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.38832797930412855</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.15649838582330231</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5357131959372428E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.39246452389043862</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26996123707837277</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.19203244336795955</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.4838278603599766</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3740257422824136</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35058043437092101</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="11"/>
+        <v>0.26923093363495326</v>
+      </c>
+      <c r="M16" s="4">
+        <f>AVERAGE(B16:L16)</f>
+        <v>0.37190370824671598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9">
+        <f>AVERAGE(B4:G4)</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.STDEV.P(B4:G4)</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D24">
+        <f>C24/SQRT(COUNT(B4:G4))*1.96</f>
+        <v>7.2655644005097924E-3</v>
+      </c>
+      <c r="H24">
+        <f>C30/C24</f>
+        <v>3.4960607834295421</v>
+      </c>
+      <c r="I24">
+        <f>D30/D24</f>
+        <v>3.8297427069870862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9">
+        <f>AVERAGE(B5:G8)</f>
+        <v>1.3788667488578914</v>
+      </c>
+      <c r="C25" s="9">
+        <f>_xlfn.STDEV.P(B5:G8)</f>
+        <v>2.7338612273232765E-2</v>
+      </c>
+      <c r="D25">
+        <f>C25/SQRT(COUNT(B5:G8))*1.96</f>
+        <v>1.2292939283426224E-2</v>
+      </c>
+      <c r="H25">
+        <f>C31/C25</f>
+        <v>1.2474805640242732</v>
+      </c>
+      <c r="I25">
+        <f>D31/D25</f>
+        <v>1.3188218314922127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>B24/B25</f>
+        <v>0.9554931573402109</v>
+      </c>
+      <c r="D26">
+        <f>SQRT((D24/B24)^2+(D25/B25)^2)*B26</f>
+        <v>1.0016431992221783E-2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <f>1-B26</f>
+        <v>4.4506842659789103E-2</v>
+      </c>
+      <c r="D27">
+        <f>D26</f>
+        <v>1.0016431992221783E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <f>B27-E27</f>
+        <v>5.7624426597891049E-3</v>
+      </c>
+      <c r="G27" s="7">
+        <f>F27/E27</f>
+        <v>0.14872969151126628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="9">
+        <f>AVERAGE(H4:L4)</f>
+        <v>1.3104592236269941</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.STDEV.P(H4:L4)</f>
+        <v>3.1744455723109716E-2</v>
+      </c>
+      <c r="D30">
+        <f>C30/SQRT(COUNT(H4:L4))*1.96</f>
+        <v>2.7825242274997379E-2</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="9">
+        <f>AVERAGE(H5:L8)</f>
+        <v>1.3472074273719949</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.STDEV.P(H5:L8)</f>
+        <v>3.4104387458253324E-2</v>
+      </c>
+      <c r="D31">
+        <f>C31/SQRT(COUNT(H5:L8))*1.96</f>
+        <v>1.621219670019074E-2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <f>B30/B31</f>
+        <v>0.97272268323469258</v>
+      </c>
+      <c r="D32">
+        <f>SQRT((D30/B30)^2+(D31/B31)^2)*B32</f>
+        <v>2.3740495871407932E-2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <f>1-B32</f>
+        <v>2.7277316765307424E-2</v>
+      </c>
+      <c r="D33">
+        <f>D32</f>
+        <v>2.3740495871407932E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <f>B33-E33</f>
+        <v>-1.1467083234692574E-2</v>
+      </c>
+      <c r="G33" s="7">
+        <f>F33/E33</f>
+        <v>-0.29596750071475036</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E34" s="6"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <f>AVERAGE(H4:L4)</f>
+        <v>1.3104592236269941</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.STDEV.P(H4:L4)</f>
+        <v>3.1744455723109716E-2</v>
+      </c>
+      <c r="D36">
+        <f>C36/SQRT(COUNT(H4:L4))*1.96</f>
+        <v>2.7825242274997379E-2</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <f>AVERAGE(H6:L8)</f>
+        <v>1.351132857355603</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.STDEV.P(H6:L8)</f>
+        <v>3.3408694192673782E-2</v>
+      </c>
+      <c r="D37">
+        <f>C37/SQRT(COUNT(H6:L8))*1.96</f>
+        <v>1.7500544237188536E-2</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>B36/B37</f>
+        <v>0.96989664376291307</v>
+      </c>
+      <c r="D38">
+        <f>SQRT((D36/B36)^2+(D37/B37)^2)*B38</f>
+        <v>2.4123260731587843E-2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>1-B38</f>
+        <v>3.0103356237086931E-2</v>
+      </c>
+      <c r="D39">
+        <f>D38</f>
+        <v>2.4123260731587843E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <f>B39-E39</f>
+        <v>-8.6410437629130671E-3</v>
+      </c>
+      <c r="G39" s="7">
+        <f>F39/E39</f>
+        <v>-0.22302690873811615</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="9">
+        <f>AVERAGE(B4:L4)</f>
+        <v>1.3142984162400835</v>
+      </c>
+      <c r="C42" s="9">
+        <f>_xlfn.STDEV.P(B4:L4)</f>
+        <v>2.2700318153770247E-2</v>
+      </c>
+      <c r="D42">
+        <f>C42/SQRT(COUNT(B4:L4))*1.96</f>
+        <v>1.3415030759817117E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="9">
+        <f>AVERAGE(B6:L8)</f>
+        <v>1.3639626313568731</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.STDEV.P(B6:L8)</f>
+        <v>3.3057521703320665E-2</v>
+      </c>
+      <c r="D43">
+        <f>C43/SQRT(COUNT(B6:L8))*1.96</f>
+        <v>1.2244677394194952E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
       <c r="B44">
-        <f>1-B43</f>
-        <v>3.378167603049731E-2</v>
+        <f>B42/B43</f>
+        <v>0.9635882875563947</v>
       </c>
       <c r="D44">
-        <f>D43</f>
-        <v>1.138765092111237E-2</v>
-      </c>
-      <c r="E44" s="6">
+        <f>SQRT((D42/B42)^2+(D43/B43)^2)*B44</f>
+        <v>1.3098218291815315E-2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <f>1-B44</f>
+        <v>3.6411712443605304E-2</v>
+      </c>
+      <c r="D45">
+        <f>D44</f>
+        <v>1.3098218291815315E-2</v>
+      </c>
+      <c r="E45" s="6">
         <v>3.8744399999999998E-2</v>
       </c>
-      <c r="F44" s="3">
-        <f>B44-E44</f>
-        <v>-4.9627239695026887E-3</v>
-      </c>
-      <c r="G44" s="7">
-        <f>F44/E44</f>
-        <v>-0.12808880688570964</v>
+      <c r="F45" s="3">
+        <f>B45-E45</f>
+        <v>-2.3326875563946942E-3</v>
+      </c>
+      <c r="G45" s="7">
+        <f>F45/E45</f>
+        <v>-6.0207089447628412E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="9">
+        <f>B24</f>
+        <v>1.3174977434176582</v>
+      </c>
+      <c r="C48" s="9">
+        <f>C24</f>
+        <v>9.0800640176425234E-3</v>
+      </c>
+      <c r="D48" s="9">
+        <f>D24</f>
+        <v>7.2655644005097924E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="9">
+        <f>AVERAGE(B6:G8)</f>
+        <v>1.376792405358144</v>
+      </c>
+      <c r="C49">
+        <f>_xlfn.STDEV.P(B6:G8)</f>
+        <v>2.7207580429433484E-2</v>
+      </c>
+      <c r="D49">
+        <f>C49/SQRT(COUNT(B6:G8))*1.96</f>
+        <v>1.4252202200605029E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <f>B48/B49</f>
+        <v>0.95693275056593485</v>
+      </c>
+      <c r="D50">
+        <f>SQRT((D48/B48)^2+(D49/B49)^2)*B50</f>
+        <v>1.1223894249530974E-2</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <f>1-B50</f>
+        <v>4.3067249434065147E-2</v>
+      </c>
+      <c r="D51">
+        <f>D50</f>
+        <v>1.1223894249530974E-2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>3.8744399999999998E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <f>B51-E51</f>
+        <v>4.3228494340651485E-3</v>
+      </c>
+      <c r="G51" s="7">
+        <f>F51/E51</f>
+        <v>0.11157352892457101</v>
       </c>
     </row>
   </sheetData>

--- a/Transmission.xlsx
+++ b/Transmission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02445DDC-A2E2-4463-891A-BCCE1A5B94F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5044C-46F7-4475-BCBC-21F1D382DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="1830" windowWidth="17520" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission" sheetId="1" r:id="rId1"/>
@@ -2225,7 +2225,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B14667F8-DBB0-4F95-A6CE-91BC2D82D2A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2236,7 +2236,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="13001625" cy="9441656"/>
+    <xdr:ext cx="12981214" cy="9416143"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2562,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3362,22 +3362,90 @@
         <v>0.23906510389751026</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="L20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="M22">
+        <v>1.31053592471522</v>
+      </c>
+      <c r="N22">
+        <v>1.3180147898819501</v>
+      </c>
+      <c r="O22">
+        <v>1.3255149864261599</v>
+      </c>
+      <c r="P22">
+        <v>1.3294236804447499</v>
+      </c>
+      <c r="Q22">
+        <v>1.3193608403941499</v>
+      </c>
+      <c r="R22">
+        <v>1.3021362386437201</v>
+      </c>
+      <c r="S22">
+        <v>1.2633638234167901</v>
+      </c>
+      <c r="T22">
+        <v>1.32281728848747</v>
+      </c>
+      <c r="U22">
+        <v>1.3126421904742001</v>
+      </c>
+      <c r="V22">
+        <v>1.3592245152836699</v>
+      </c>
+      <c r="W22">
+        <v>1.2936623929168301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23">
+        <v>1.39026602776317</v>
+      </c>
+      <c r="N23">
+        <v>1.32455698354406</v>
+      </c>
+      <c r="O23">
+        <v>1.3437713149717201</v>
+      </c>
+      <c r="P23">
+        <v>1.37939673924573</v>
+      </c>
+      <c r="Q23">
+        <v>1.33124791614855</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.3401078624894101</v>
+      </c>
+      <c r="T23">
+        <v>1.2911119934713799</v>
+      </c>
+      <c r="U23">
+        <v>1.25140575850842</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3401,8 +3469,41 @@
         <f>D30/D24</f>
         <v>3.8297427069870862</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <v>1.35525957153332</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.3838685315935699</v>
+      </c>
+      <c r="P24">
+        <v>1.3591177192686601</v>
+      </c>
+      <c r="Q24">
+        <v>1.3245390271084101</v>
+      </c>
+      <c r="R24">
+        <v>1.3460474924090999</v>
+      </c>
+      <c r="S24">
+        <v>1.3670627471057</v>
+      </c>
+      <c r="T24">
+        <v>1.3645079696737501</v>
+      </c>
+      <c r="U24">
+        <v>1.30242279029534</v>
+      </c>
+      <c r="V24">
+        <v>1.3959268086449499</v>
+      </c>
+      <c r="W24">
+        <v>1.31818328751261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3426,8 +3527,41 @@
         <f>D31/D25</f>
         <v>1.3604783922106594</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.3869868886030301</v>
+      </c>
+      <c r="O25">
+        <v>1.3869598871814099</v>
+      </c>
+      <c r="P25">
+        <v>1.3761891095215999</v>
+      </c>
+      <c r="Q25">
+        <v>1.3309374819703499</v>
+      </c>
+      <c r="R25">
+        <v>1.3822709814534</v>
+      </c>
+      <c r="S25">
+        <v>1.2795650561368701</v>
+      </c>
+      <c r="T25">
+        <v>1.32844339214369</v>
+      </c>
+      <c r="U25">
+        <v>1.2991714499632401</v>
+      </c>
+      <c r="V25">
+        <v>1.3628846375641901</v>
+      </c>
+      <c r="W25">
+        <v>1.2987532518972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3448,8 +3582,41 @@
       <c r="G26" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1.3550637838864401</v>
+      </c>
+      <c r="P26">
+        <v>1.37034046772109</v>
+      </c>
+      <c r="Q26">
+        <v>1.4169305237196099</v>
+      </c>
+      <c r="R26">
+        <v>1.3153442636025801</v>
+      </c>
+      <c r="S26">
+        <v>1.33103154263489</v>
+      </c>
+      <c r="T26">
+        <v>1.3704551496782</v>
+      </c>
+      <c r="U26">
+        <v>1.2917919514534399</v>
+      </c>
+      <c r="V26">
+        <v>1.3596883934483199</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3473,20 +3640,108 @@
         <v>-0.17492601892449303</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28">
+        <f>B4/M22-1</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:W28" si="6">C4/N22-1</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
+        <v>4.4635740056353512E-4</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29">
+        <f t="shared" ref="M29:M32" si="7">B5/M23-1</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N33" si="8">C5/N23-1</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O33" si="9">D5/O23-1</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P33" si="10">E5/P23-1</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q33" si="11">F5/Q23-1</f>
+        <v>0</v>
+      </c>
+      <c r="R29" t="e">
+        <f t="shared" ref="R29:R33" si="12">G5/R23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S33" si="13">H5/S23-1</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T33" si="14">I5/T23-1</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U33" si="15">J5/U23-1</f>
+        <v>1.2214438132551741E-2</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" ref="V29:V33" si="16">K5/V23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" ref="W29:W32" si="17">L5/W23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3505,8 +3760,52 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="15"/>
+        <v>-1.7480050967272343E-3</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3525,8 +3824,52 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="15"/>
+        <v>3.0496866050259142E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3548,6 +3891,50 @@
         <v>28</v>
       </c>
       <c r="H32" s="8"/>
+      <c r="M32" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="15"/>
+        <v>2.0451761163904569E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -3862,8 +4249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF8F06-C3C6-4CCB-BB0C-8503114DC839}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
